--- a/static/attendance_sheets/cse_attendance.xlsx
+++ b/static/attendance_sheets/cse_attendance.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +622,2022 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>12:51:33</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21222</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>12:51:33</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>12:57:20</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>12:57:20</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>12:57:20</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>12:57:43</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>12:57:43</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>12:57:43</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>12:58:03</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>12:58:03</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>12:58:03</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>12:58:26</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>12:58:26</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>12:58:26</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>12:58:48</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>12:58:48</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>12:58:48</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>12:59:06</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>12:59:06</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>12:59:06</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>12:59:24</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>12:59:24</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>12:59:24</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>12:59:41</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>12:59:41</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>12:59:41</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>13:00:09</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>13:00:09</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>13:00:09</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>13:00:29</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>13:00:29</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>13:00:29</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>13:00:49</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>13:00:49</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>13:00:49</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>13:01:12</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>13:01:12</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>13:01:12</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>13:02:14</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>13:02:14</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>13:02:14</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>13:02:14</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>13:02:40</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>13:02:40</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>13:02:40</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>13:02:40</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>13:02:57</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>13:02:57</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>13:02:57</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>harsh namdev</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>13:02:57</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>13:04:53</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>13:04:53</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>13:05:12</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>13:05:12</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>13:05:57</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>13:05:57</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>13:05:57</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>harsh n</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>13:06:17</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>13:06:17</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>13:06:17</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>harsh n</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>13:06:33</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>Gaurav Sharma</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>13:06:33</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Harsh kharniwal</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>13:06:33</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>harsh n</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
